--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77141.40928599991</v>
+        <v>5151068.340509108</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77141.40928599991</v>
+        <v>5151068.340509108</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1187262996.55217</v>
+        <v>42538890.0954921</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11652.80231943647</v>
+        <v>870259.5901488232</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23303.18749578783</v>
+        <v>1740519.180297646</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34957.02137404167</v>
+        <v>2610778.77044647</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46852.7801197761</v>
+        <v>3480166.115268314</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58748.53520711651</v>
+        <v>4349553.460090158</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70644.29395285093</v>
+        <v>5218940.804912001</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82540.05269858534</v>
+        <v>6088328.14973384</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94435.80778592576</v>
+        <v>6957715.494555678</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106331.5665316602</v>
+        <v>7827102.839377517</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118227.3252773947</v>
+        <v>8696490.184199356</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130123.0840231291</v>
+        <v>9565877.529021194</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142018.8427688636</v>
+        <v>10435264.87384304</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>153914.601514598</v>
+        <v>11304652.21866489</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>165810.3602603324</v>
+        <v>12174039.56348674</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>177706.119006067</v>
+        <v>13043426.90830859</v>
       </c>
     </row>
   </sheetData>
